--- a/src/main/resources/testdata/shoppersStackTestData.xlsx
+++ b/src/main/resources/testdata/shoppersStackTestData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaami\eclipse-workspace\shoppersStackDemoProject\src\main\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaami\Workspace Eclipse\Shoppers-Stack-Project\src\main\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BF16BC-6D5B-4714-86EB-AB69D72A4901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7EFDB0-7545-44E9-8ECE-3A6CCAFC2E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C0B89A7E-5E68-44C3-A5A7-E7E3280E9F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" r:id="rId1"/>
+    <sheet name="Coupon Details" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Products</t>
   </si>
@@ -37,6 +38,48 @@
   </si>
   <si>
     <t>shirt</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>'2024-08-20T14:59</t>
+  </si>
+  <si>
+    <t>2024-07-20T14:59</t>
+  </si>
+  <si>
+    <t>shoes</t>
+  </si>
+  <si>
+    <t>footwear</t>
+  </si>
+  <si>
+    <t>lipstick</t>
+  </si>
+  <si>
+    <t>nykaa chai</t>
   </si>
 </sst>
 </file>
@@ -52,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -62,6 +105,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -93,10 +142,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DCB249-B4F3-4A8C-98F2-7219F57A3653}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -438,6 +490,75 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E38788-166B-4D73-9E11-AE31513044DF}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
